--- a/ISSC/ISSC_model_v1.xlsx
+++ b/ISSC/ISSC_model_v1.xlsx
@@ -1,25 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753F8FD-01EE-4374-BDB5-55B1C7563454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+  <si>
+    <t>Net Sales:</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Engineering development contracts</t>
+  </si>
+  <si>
+    <t>Total net sales</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Total COGS</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Total Opex</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Income tax expense (benefit)</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>WASO</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Diluted</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="167" formatCode="\1\Q0"/>
+    <numFmt numFmtId="168" formatCode="\2\Q0"/>
+    <numFmt numFmtId="169" formatCode="\3\Q0"/>
+    <numFmt numFmtId="170" formatCode="\4\Q0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +146,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +437,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="U3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="V3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2024</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5088208</v>
+      </c>
+      <c r="T5">
+        <v>5945151</v>
+      </c>
+      <c r="W5">
+        <v>4424108</v>
+      </c>
+      <c r="X5">
+        <v>4895589</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1061149</v>
+      </c>
+      <c r="T6">
+        <v>1395303</v>
+      </c>
+      <c r="W6">
+        <v>4227247</v>
+      </c>
+      <c r="X6">
+        <v>5098222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>366899</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>656708</v>
+      </c>
+      <c r="X7">
+        <v>745705</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C5:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:W8" si="0">SUM(D5:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>6516256</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>7340454</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>9308063</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8" si="1">SUM(X5:X7)</f>
+        <v>10739516</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8" si="2">SUM(Y5:Y7)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8" si="3">SUM(Z5:Z7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>2415944</v>
+      </c>
+      <c r="T11">
+        <v>2202750</v>
+      </c>
+      <c r="W11">
+        <v>1781345</v>
+      </c>
+      <c r="X11">
+        <v>2347695</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>319102</v>
+      </c>
+      <c r="T12">
+        <v>397553</v>
+      </c>
+      <c r="W12">
+        <v>1726961</v>
+      </c>
+      <c r="X12">
+        <v>2462260</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>57406</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>276595</v>
+      </c>
+      <c r="X13">
+        <v>347199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C11:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:Z14" si="4">SUM(D11:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>2792452</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>2600303</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>3784901</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>5157154</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f>C8-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:Z16" si="5">D8-D14</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>3723804</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>4740151</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>5523162</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>5582362</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>670445</v>
+      </c>
+      <c r="T19">
+        <v>866198</v>
+      </c>
+      <c r="W19">
+        <v>901144</v>
+      </c>
+      <c r="X19">
+        <v>1031119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>2261863</v>
+      </c>
+      <c r="T20">
+        <v>2446635</v>
+      </c>
+      <c r="W20">
+        <v>3006819</v>
+      </c>
+      <c r="X20">
+        <v>2908193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C19:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:Z21" si="6">SUM(D19:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>2932308</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>3312833</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>3907963</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>3939312</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <f>C16-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:Z23" si="7">D16-D21</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>791496</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="7"/>
+        <v>1427318</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="7"/>
+        <v>1615199</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="7"/>
+        <v>1643050</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>-360013</v>
+      </c>
+      <c r="X25">
+        <v>-171470</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26">
+        <v>115892</v>
+      </c>
+      <c r="T26">
+        <v>130951</v>
+      </c>
+      <c r="W26">
+        <v>79479</v>
+      </c>
+      <c r="X26">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>18196</v>
+      </c>
+      <c r="T27">
+        <v>23258</v>
+      </c>
+      <c r="W27">
+        <v>17699</v>
+      </c>
+      <c r="X27">
+        <v>26472</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C23,C25:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:Z28" si="8">SUM(D23,D25:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
+        <v>925584</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="8"/>
+        <v>1581527</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>1352364</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>1534252</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30">
+        <v>226933</v>
+      </c>
+      <c r="T30">
+        <v>310424</v>
+      </c>
+      <c r="W30">
+        <v>295014</v>
+      </c>
+      <c r="X30">
+        <v>325936</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <f>C28-C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:Z31" si="9">D28-D30</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>698651</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>1271103</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>1057350</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>1208316</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <v>17316766</v>
+      </c>
+      <c r="T34">
+        <v>17352340</v>
+      </c>
+      <c r="W34">
+        <v>17451362</v>
+      </c>
+      <c r="X34">
+        <v>17456120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35">
+        <v>17326177</v>
+      </c>
+      <c r="T35">
+        <v>17354030</v>
+      </c>
+      <c r="W35">
+        <v>17474906</v>
+      </c>
+      <c r="X35">
+        <v>17487527</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="e">
+        <f>C31/C34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" ref="D38:Z38" si="10">D31/D34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="10"/>
+        <v>4.0345350858237615E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>7.3252541155832587E-2</v>
+      </c>
+      <c r="U38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>6.0588394189519418E-2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>6.9220193261732843E-2</v>
+      </c>
+      <c r="Y38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="e">
+        <f>C31/C35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" ref="D39:Z39" si="11">D31/D35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>4.0323436612704579E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="11"/>
+        <v>7.3245407550868585E-2</v>
+      </c>
+      <c r="U39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="11"/>
+        <v>6.0506763240958203E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="11"/>
+        <v>6.9095876163622227E-2</v>
+      </c>
+      <c r="Y39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z39" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>